--- a/pa1/bound.xlsx
+++ b/pa1/bound.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="260" yWindow="100" windowWidth="27160" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="r0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -548,6 +553,1279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average 0-D Tree</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.244588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.151885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.046354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.013119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.008268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.002211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.001533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1/log(n)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0666843065858174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552933896"/>
+        <c:axId val="553435512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552933896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="553435512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553435512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="552933896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average 2-D Tree</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.451161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.333944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.206099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.176612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.098674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.060589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.037921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.032132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.024051</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.016731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2/log(n)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.133368613171635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="679393336"/>
+        <c:axId val="679318280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="679393336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679318280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679318280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679393336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average 3-D Tree</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.564879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.432415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.354833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.217234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.147716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.134874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.121024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.078539</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.07203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.048683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3/log(n)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$G$1:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.200052919757452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="566048072"/>
+        <c:axId val="607077336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="566048072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="607077336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607077336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="566048072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average 4-D Tree</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$H$1:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.622171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.636881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.504404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.403456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.491436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.255775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.220936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.188597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.116696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4/log(n)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>r0!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32678.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>r0!$I$1:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26673722634327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="580711560"/>
+        <c:axId val="566120264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="580711560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="566120264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566120264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="580711560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,15 +2115,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H1" sqref="H1:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1">
         <v>16</v>
       </c>
@@ -853,16 +2131,32 @@
         <v>0.244588</v>
       </c>
       <c r="C1">
+        <f>1/LOG(A1,2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D1">
         <v>0.45116099999999998</v>
       </c>
-      <c r="D1">
+      <c r="E1">
+        <f>2/LOG(A1,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F1">
         <v>0.56487900000000002</v>
       </c>
-      <c r="E1">
+      <c r="G1">
+        <f>3/LOG(A1,2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H1">
         <v>0.62217100000000003</v>
       </c>
+      <c r="I1">
+        <f>4/LOG(A1,2)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>32</v>
       </c>
@@ -870,16 +2164,32 @@
         <v>0.15188499999999999</v>
       </c>
       <c r="C2">
+        <f t="shared" ref="C2:C12" si="0">1/LOG(A2,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D2">
         <v>0.33394400000000002</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <f t="shared" ref="E2:E12" si="1">2/LOG(A2,2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F2">
         <v>0.45090999999999998</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <f t="shared" ref="G2:G12" si="2">3/LOG(A2,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H2">
         <v>0.63688100000000003</v>
       </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I12" si="3">4/LOG(A2,2)</f>
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>64</v>
       </c>
@@ -887,16 +2197,32 @@
         <v>8.949E-2</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3">
         <v>0.206099</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3">
         <v>0.43241499999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
         <v>0.50440399999999996</v>
       </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>128</v>
       </c>
@@ -904,16 +2230,32 @@
         <v>4.6353999999999999E-2</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D4">
         <v>0.17661199999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F4">
         <v>0.35483300000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H4">
         <v>0.40345599999999998</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>256</v>
       </c>
@@ -921,16 +2263,32 @@
         <v>3.3020000000000001E-2</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="D5">
         <v>0.12834300000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F5">
         <v>0.21978</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="H5">
         <v>0.49143599999999998</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>512</v>
       </c>
@@ -938,16 +2296,32 @@
         <v>1.3119E-2</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6">
         <v>9.8673999999999998E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F6">
         <v>0.21723400000000001</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6">
         <v>0.28996</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.44444444444444442</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1024</v>
       </c>
@@ -955,16 +2329,32 @@
         <v>8.2679999999999993E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D7">
         <v>6.0588999999999997E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F7">
         <v>0.14771599999999999</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H7">
         <v>0.25577499999999997</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -972,16 +2362,32 @@
         <v>5.5989999999999998E-3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D8">
         <v>3.7921000000000003E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F8">
         <v>0.13487399999999999</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H8">
         <v>0.22093599999999999</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.36363636363636365</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>4096</v>
       </c>
@@ -989,16 +2395,32 @@
         <v>2.2109999999999999E-3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D9">
         <v>3.2132000000000001E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F9">
         <v>0.12102400000000001</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="H9">
         <v>0.18859699999999999</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8192</v>
       </c>
@@ -1006,16 +2428,32 @@
         <v>1.5330000000000001E-3</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D10">
         <v>2.4050999999999999E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="F10">
         <v>7.8538999999999998E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="H10">
         <v>0.16971</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>16384</v>
       </c>
@@ -1023,16 +2461,32 @@
         <v>7.4899999999999999E-4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D11">
         <v>1.6730999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F11">
         <v>7.2029999999999997E-2</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H11">
         <v>0.135878</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>32678</v>
       </c>
@@ -1040,30 +2494,52 @@
         <v>3.7100000000000002E-4</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6.6684306585817407E-2</v>
+      </c>
+      <c r="D12">
         <v>1.2930000000000001E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.13336861317163481</v>
+      </c>
+      <c r="F12">
         <v>4.8682999999999997E-2</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.20005291975745224</v>
+      </c>
+      <c r="H12">
         <v>0.11669599999999999</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.26673722634326963</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pa1/bound.xlsx
+++ b/pa1/bound.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="100" windowWidth="27160" windowHeight="14140"/>
+    <workbookView xWindow="255" yWindow="105" windowWidth="27165" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="r0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -591,40 +591,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,37 +639,37 @@
                   <c:v>0.244588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.151885</c:v>
+                  <c:v>0.15188499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08949</c:v>
+                  <c:v>8.949E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.046354</c:v>
+                  <c:v>4.6353999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03302</c:v>
+                  <c:v>3.3020000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.013119</c:v>
+                  <c:v>1.3119E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.008268</c:v>
+                  <c:v>8.2679999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.005599</c:v>
+                  <c:v>5.5989999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002211</c:v>
+                  <c:v>2.2109999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001533</c:v>
+                  <c:v>1.5330000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000749</c:v>
+                  <c:v>7.4899999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000371</c:v>
+                  <c:v>3.7100000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +680,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>1/log(n)</c:v>
+            <c:v>1.5/log(n)-.09</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -692,40 +692,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,40 +737,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.28500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.142857142857143</c:v>
+                  <c:v>0.12428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>9.7500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.111111111111111</c:v>
+                  <c:v>7.6666666666666661E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0909090909090909</c:v>
+                  <c:v>4.6363636363636357E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0833333333333333</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0769230769230769</c:v>
+                  <c:v>2.5384615384615394E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0714285714285714</c:v>
+                  <c:v>1.714285714285714E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0666843065858174</c:v>
+                  <c:v>1.0026459878726121E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,11 +787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552933896"/>
-        <c:axId val="553435512"/>
+        <c:axId val="38996992"/>
+        <c:axId val="109841792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552933896"/>
+        <c:axId val="38996992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553435512"/>
+        <c:crossAx val="109841792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553435512"/>
+        <c:axId val="109841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552933896"/>
+        <c:crossAx val="38996992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,7 +836,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -878,40 +878,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,40 +923,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.451161</c:v>
+                  <c:v>0.45116099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.333944</c:v>
+                  <c:v>0.33394400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.206099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.176612</c:v>
+                  <c:v>0.17661199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.128343</c:v>
+                  <c:v>0.12834300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.098674</c:v>
+                  <c:v>9.8673999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.060589</c:v>
+                  <c:v>6.0588999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.037921</c:v>
+                  <c:v>3.7921000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.032132</c:v>
+                  <c:v>3.2132000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.024051</c:v>
+                  <c:v>2.4050999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.016731</c:v>
+                  <c:v>1.6730999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01293</c:v>
+                  <c:v>1.2930000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,40 +979,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,34 +1030,34 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.222222222222222</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.181818181818182</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.166666666666667</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.153846153846154</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.142857142857143</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.133368613171635</c:v>
+                  <c:v>0.13336861317163481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,11 +1074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679393336"/>
-        <c:axId val="679318280"/>
+        <c:axId val="112468992"/>
+        <c:axId val="109843520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679393336"/>
+        <c:axId val="112468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679318280"/>
+        <c:crossAx val="109843520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679318280"/>
+        <c:axId val="109843520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679393336"/>
+        <c:crossAx val="112468992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,7 +1123,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1165,40 +1165,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,40 +1210,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.564879</c:v>
+                  <c:v>0.56487900000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45091</c:v>
+                  <c:v>0.45090999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.432415</c:v>
+                  <c:v>0.43241499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.354833</c:v>
+                  <c:v>0.35483300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.21978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.217234</c:v>
+                  <c:v>0.21723400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.147716</c:v>
+                  <c:v>0.14771599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.134874</c:v>
+                  <c:v>0.13487399999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.121024</c:v>
+                  <c:v>0.12102400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.078539</c:v>
+                  <c:v>7.8538999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.07203</c:v>
+                  <c:v>7.2029999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.048683</c:v>
+                  <c:v>4.8682999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,40 +1266,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,31 +1320,31 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.272727272727273</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.230769230769231</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.200052919757452</c:v>
+                  <c:v>0.20005291975745224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,11 +1361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566048072"/>
-        <c:axId val="607077336"/>
+        <c:axId val="112471040"/>
+        <c:axId val="109845248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566048072"/>
+        <c:axId val="112471040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607077336"/>
+        <c:crossAx val="109845248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607077336"/>
+        <c:axId val="109845248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566048072"/>
+        <c:crossAx val="112471040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,7 +1410,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1452,40 +1452,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,31 +1497,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.622171</c:v>
+                  <c:v>0.62217100000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.636881</c:v>
+                  <c:v>0.63688100000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.504404</c:v>
+                  <c:v>0.50440399999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.403456</c:v>
+                  <c:v>0.40345599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.491436</c:v>
+                  <c:v>0.49143599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.28996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.255775</c:v>
+                  <c:v>0.25577499999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.220936</c:v>
+                  <c:v>0.22093599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.188597</c:v>
+                  <c:v>0.18859699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.16971</c:v>
@@ -1530,7 +1530,7 @@
                   <c:v>0.135878</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.116696</c:v>
+                  <c:v>0.11669599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,40 +1553,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,40 +1598,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.444444444444444</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.363636363636364</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.307692307692308</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26673722634327</c:v>
+                  <c:v>0.26673722634326963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="580711560"/>
-        <c:axId val="566120264"/>
+        <c:axId val="123875328"/>
+        <c:axId val="123929152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="580711560"/>
+        <c:axId val="123875328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566120264"/>
+        <c:crossAx val="123929152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566120264"/>
+        <c:axId val="123929152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="580711560"/>
+        <c:crossAx val="123875328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1697,7 +1697,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1707,16 +1707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1767,16 +1767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1797,16 +1797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2118,12 +2118,12 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
@@ -2131,8 +2131,8 @@
         <v>0.244588</v>
       </c>
       <c r="C1">
-        <f>1/LOG(A1,2)</f>
-        <v>0.25</v>
+        <f>1.5/LOG(A1,2)-0.09</f>
+        <v>0.28500000000000003</v>
       </c>
       <c r="D1">
         <v>0.45116099999999998</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -2164,8 +2164,8 @@
         <v>0.15188499999999999</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C12" si="0">1/LOG(A2,2)</f>
-        <v>0.2</v>
+        <f t="shared" ref="C2:C12" si="0">1.5/LOG(A2,2)-0.09</f>
+        <v>0.21</v>
       </c>
       <c r="D2">
         <v>0.33394400000000002</v>
@@ -2189,7 +2189,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.16</v>
       </c>
       <c r="D3">
         <v>0.206099</v>
@@ -2222,7 +2222,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>128</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.12428571428571428</v>
       </c>
       <c r="D4">
         <v>0.17661199999999999</v>
@@ -2255,7 +2255,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>256</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="D5">
         <v>0.12834300000000001</v>
@@ -2288,7 +2288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>512</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="D6">
         <v>9.8673999999999998E-2</v>
@@ -2321,7 +2321,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1024</v>
       </c>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D7">
         <v>6.0588999999999997E-2</v>
@@ -2354,7 +2354,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>4.6363636363636357E-2</v>
       </c>
       <c r="D8">
         <v>3.7921000000000003E-2</v>
@@ -2387,7 +2387,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4096</v>
       </c>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D9">
         <v>3.2132000000000001E-2</v>
@@ -2420,7 +2420,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8192</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>2.5384615384615394E-2</v>
       </c>
       <c r="D10">
         <v>2.4050999999999999E-2</v>
@@ -2453,7 +2453,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16384</v>
       </c>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <v>1.714285714285714E-2</v>
       </c>
       <c r="D11">
         <v>1.6730999999999999E-2</v>
@@ -2486,7 +2486,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32678</v>
       </c>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.6684306585817407E-2</v>
+        <v>1.0026459878726121E-2</v>
       </c>
       <c r="D12">
         <v>1.2930000000000001E-2</v>
@@ -2519,7 +2519,7 @@
         <v>0.26673722634326963</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>

--- a/pa1/bound.xlsx
+++ b/pa1/bound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="105" windowWidth="27165" windowHeight="14145"/>
+    <workbookView xWindow="945" yWindow="1425" windowWidth="27165" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="r0" sheetId="1" r:id="rId1"/>
@@ -787,11 +787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38996992"/>
-        <c:axId val="109841792"/>
+        <c:axId val="48367104"/>
+        <c:axId val="134555904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38996992"/>
+        <c:axId val="48367104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109841792"/>
+        <c:crossAx val="134555904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109841792"/>
+        <c:axId val="134555904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38996992"/>
+        <c:crossAx val="48367104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,11 +1074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112468992"/>
-        <c:axId val="109843520"/>
+        <c:axId val="48368128"/>
+        <c:axId val="134557056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112468992"/>
+        <c:axId val="48368128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109843520"/>
+        <c:crossAx val="134557056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109843520"/>
+        <c:axId val="134557056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112468992"/>
+        <c:crossAx val="48368128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1361,11 +1361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112471040"/>
-        <c:axId val="109845248"/>
+        <c:axId val="48368640"/>
+        <c:axId val="134558784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112471040"/>
+        <c:axId val="48368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109845248"/>
+        <c:crossAx val="134558784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109845248"/>
+        <c:axId val="134558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112471040"/>
+        <c:crossAx val="48368640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,11 +1648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123875328"/>
-        <c:axId val="123929152"/>
+        <c:axId val="48369152"/>
+        <c:axId val="134560512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123875328"/>
+        <c:axId val="48369152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123929152"/>
+        <c:crossAx val="134560512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123929152"/>
+        <c:axId val="134560512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123875328"/>
+        <c:crossAx val="48369152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,10 +1713,10 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1737,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1767,16 +1767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1797,16 +1797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
